--- a/daraz_bug_report.xlsx
+++ b/daraz_bug_report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHY NOT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHY NOT\AppData\Local\Temp\Rar$DIa14824.32642.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10815" windowHeight="4245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,51 +51,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>DARAZ-BUG-001</t>
-  </si>
-  <si>
-    <t>DARAZ-BUG-002</t>
-  </si>
-  <si>
-    <t>DARAZ-BUG-003</t>
-  </si>
-  <si>
-    <t>DARAZ-BUG-004</t>
-  </si>
-  <si>
-    <t>DARAZ-BUG-005</t>
-  </si>
-  <si>
-    <t>DARAZ-BUG-006</t>
-  </si>
-  <si>
-    <t>DARAZ-BUG-007</t>
-  </si>
-  <si>
-    <t>DARAZ-BUG-008</t>
-  </si>
-  <si>
-    <t>DARAZ-BUG-009</t>
-  </si>
-  <si>
-    <t>DARAZ-BUG-010</t>
-  </si>
-  <si>
-    <t>DARAZ-BUG-011</t>
-  </si>
-  <si>
-    <t>DARAZ-BUG-012</t>
-  </si>
-  <si>
-    <t>DARAZ-BUG-013</t>
-  </si>
-  <si>
-    <t>DARAZ-BUG-014</t>
-  </si>
-  <si>
-    <t>DARAZ-BUG-015</t>
-  </si>
-  <si>
     <t>Md. Nazmul Ahsan</t>
   </si>
   <si>
@@ -304,6 +259,51 @@
   </si>
   <si>
     <t>Critical</t>
+  </si>
+  <si>
+    <t>BUG-001</t>
+  </si>
+  <si>
+    <t>BUG-002</t>
+  </si>
+  <si>
+    <t>BUG-003</t>
+  </si>
+  <si>
+    <t>BUG-004</t>
+  </si>
+  <si>
+    <t>BUG-005</t>
+  </si>
+  <si>
+    <t>BUG-006</t>
+  </si>
+  <si>
+    <t>BUG-007</t>
+  </si>
+  <si>
+    <t>BUG-008</t>
+  </si>
+  <si>
+    <t>BUG-009</t>
+  </si>
+  <si>
+    <t>BUG-010</t>
+  </si>
+  <si>
+    <t>BUG-011</t>
+  </si>
+  <si>
+    <t>BUG-012</t>
+  </si>
+  <si>
+    <t>BUG-013</t>
+  </si>
+  <si>
+    <t>BUG-014</t>
+  </si>
+  <si>
+    <t>BUG-015</t>
   </si>
 </sst>
 </file>
@@ -673,17 +673,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" customWidth="1"/>
     <col min="6" max="6" width="65.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="43.85546875" customWidth="1"/>
     <col min="8" max="8" width="45.28515625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
@@ -723,482 +725,482 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>76</v>
       </c>
-      <c r="I2" t="s">
-        <v>91</v>
-      </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>62</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>77</v>
       </c>
-      <c r="I3" t="s">
-        <v>92</v>
-      </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>63</v>
       </c>
-      <c r="H4" t="s">
-        <v>78</v>
-      </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>64</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
         <v>79</v>
-      </c>
-      <c r="I5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>65</v>
       </c>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>51</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>66</v>
       </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>67</v>
       </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>68</v>
       </c>
-      <c r="H9" t="s">
-        <v>83</v>
-      </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>69</v>
       </c>
-      <c r="H10" t="s">
-        <v>84</v>
-      </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>55</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>70</v>
       </c>
-      <c r="H11" t="s">
-        <v>85</v>
-      </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>71</v>
       </c>
-      <c r="H12" t="s">
-        <v>86</v>
-      </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>57</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>72</v>
       </c>
-      <c r="H13" t="s">
-        <v>87</v>
-      </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>73</v>
       </c>
-      <c r="H14" t="s">
-        <v>88</v>
-      </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>74</v>
       </c>
-      <c r="H15" t="s">
-        <v>89</v>
-      </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>75</v>
       </c>
-      <c r="H16" t="s">
-        <v>90</v>
-      </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
